--- a/test_case_example/test_case.xlsx
+++ b/test_case_example/test_case.xlsx
@@ -7,14 +7,15 @@
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="main" sheetId="1" r:id="rId1"/>
+    <sheet name="sub" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="549" uniqueCount="165">
   <si>
     <t>No</t>
   </si>
@@ -43,9 +44,6 @@
     <t>TC001</t>
   </si>
   <si>
-    <t>Home</t>
-  </si>
-  <si>
     <t>NAVIGATE</t>
   </si>
   <si>
@@ -94,12 +92,6 @@
     <t>Go to home page</t>
   </si>
   <si>
-    <t>input item username</t>
-  </si>
-  <si>
-    <t>input item password</t>
-  </si>
-  <si>
     <t>Click login</t>
   </si>
   <si>
@@ -119,6 +111,409 @@
   </si>
   <si>
     <t>/html/body/div/div[2]/div[2]/nav/div[2]/div[2]/ul/div[2]/button</t>
+  </si>
+  <si>
+    <t>TC002</t>
+  </si>
+  <si>
+    <t>123aA@324</t>
+  </si>
+  <si>
+    <t>User or Password not correct!</t>
+  </si>
+  <si>
+    <t>Check message</t>
+  </si>
+  <si>
+    <t>`</t>
+  </si>
+  <si>
+    <t>CHECK_MESSAGE</t>
+  </si>
+  <si>
+    <t>/html/body/div/div[1]/span/div/div/div</t>
+  </si>
+  <si>
+    <t>CLOSE_BROWSER</t>
+  </si>
+  <si>
+    <t>CLICK</t>
+  </si>
+  <si>
+    <t>true</t>
+  </si>
+  <si>
+    <t>ENABLE</t>
+  </si>
+  <si>
+    <t>Button login status</t>
+  </si>
+  <si>
+    <t>TC003</t>
+  </si>
+  <si>
+    <t>S006</t>
+  </si>
+  <si>
+    <t>S007</t>
+  </si>
+  <si>
+    <t>S008</t>
+  </si>
+  <si>
+    <t>S009</t>
+  </si>
+  <si>
+    <t>hr1@hrsystem.com.vn</t>
+  </si>
+  <si>
+    <t>S010</t>
+  </si>
+  <si>
+    <t>S011</t>
+  </si>
+  <si>
+    <t>CLEAN_VALUE</t>
+  </si>
+  <si>
+    <t>Clean password</t>
+  </si>
+  <si>
+    <t>Input wrong username</t>
+  </si>
+  <si>
+    <t>Input  password</t>
+  </si>
+  <si>
+    <t>Clean username</t>
+  </si>
+  <si>
+    <t>Input username</t>
+  </si>
+  <si>
+    <t>Input wrong password</t>
+  </si>
+  <si>
+    <t>Input password</t>
+  </si>
+  <si>
+    <t>Log-in</t>
+  </si>
+  <si>
+    <t>NEW TICKET</t>
+  </si>
+  <si>
+    <t>Side Menu</t>
+  </si>
+  <si>
+    <t>Menu title</t>
+  </si>
+  <si>
+    <t>//*[@id="style-3"]/ul/li[1]/a/p</t>
+  </si>
+  <si>
+    <t>//*[@id="hr"]/li[1]/a/p</t>
+  </si>
+  <si>
+    <t>//*[@id="hr"]/li[2]/a/p</t>
+  </si>
+  <si>
+    <t>//*[@id="hr"]/li[3]/a/p</t>
+  </si>
+  <si>
+    <t>//*[@id="style-3"]/ul/li[2]/a/p</t>
+  </si>
+  <si>
+    <t>//*[@id="request-ticket"]/li[1]/a/p</t>
+  </si>
+  <si>
+    <t>//*[@id="request-ticket"]/li[2]/a/p</t>
+  </si>
+  <si>
+    <t>//*[@id="request-ticket"]/li[3]/a/p</t>
+  </si>
+  <si>
+    <t>S012</t>
+  </si>
+  <si>
+    <t>S013</t>
+  </si>
+  <si>
+    <t>HUMAN MANGEMENT</t>
+  </si>
+  <si>
+    <t>LIST EMPLOYEE</t>
+  </si>
+  <si>
+    <t>NEW EMPLOYEE</t>
+  </si>
+  <si>
+    <t>REPORT</t>
+  </si>
+  <si>
+    <t>TICKETS</t>
+  </si>
+  <si>
+    <t>MY TICKET</t>
+  </si>
+  <si>
+    <t>RECEIVED TICKET</t>
+  </si>
+  <si>
+    <t>S014</t>
+  </si>
+  <si>
+    <t>http://localhost:8081/human-management/list-employee</t>
+  </si>
+  <si>
+    <t>Navigate to List employee</t>
+  </si>
+  <si>
+    <t>S015</t>
+  </si>
+  <si>
+    <t>Navigate to New emoloyee</t>
+  </si>
+  <si>
+    <t>http://localhost:8081/human-management/new-employee</t>
+  </si>
+  <si>
+    <t>S016</t>
+  </si>
+  <si>
+    <t>Navigate to Report</t>
+  </si>
+  <si>
+    <t>S017</t>
+  </si>
+  <si>
+    <t>Navigate to My ticket</t>
+  </si>
+  <si>
+    <t>http://localhost:8081/business/list-leave-ticket</t>
+  </si>
+  <si>
+    <t>S018</t>
+  </si>
+  <si>
+    <t>Navigate to Received Ticket</t>
+  </si>
+  <si>
+    <t>http://localhost:8081/business/list-received-ticket</t>
+  </si>
+  <si>
+    <t>S019</t>
+  </si>
+  <si>
+    <t>Navigate to New Ticket</t>
+  </si>
+  <si>
+    <t>/html/body/div/div[2]/div[2]/div/div/div/div[1]/h4</t>
+  </si>
+  <si>
+    <t>/html/body/div/div[2]/div[2]/div/div/div[1]/div[1]/h4</t>
+  </si>
+  <si>
+    <t>Check Report Title Page</t>
+  </si>
+  <si>
+    <t>Check New emoloyee Title Page</t>
+  </si>
+  <si>
+    <t>Check List Employee Title Page</t>
+  </si>
+  <si>
+    <t>Check  My ticket Title Page</t>
+  </si>
+  <si>
+    <t>Check  Received Ticket Title Page</t>
+  </si>
+  <si>
+    <t>Check  New Ticket Title Page</t>
+  </si>
+  <si>
+    <t>TC004</t>
+  </si>
+  <si>
+    <t>S020</t>
+  </si>
+  <si>
+    <t>S021</t>
+  </si>
+  <si>
+    <t>S022</t>
+  </si>
+  <si>
+    <t>S023</t>
+  </si>
+  <si>
+    <t>S024</t>
+  </si>
+  <si>
+    <t>S025</t>
+  </si>
+  <si>
+    <t>http://localhost:8081/human-management/report</t>
+  </si>
+  <si>
+    <t>Top Nav</t>
+  </si>
+  <si>
+    <t>Check wellcome title</t>
+  </si>
+  <si>
+    <t>/html/body/div/div[2]/div[2]/nav/div[2]/div[1]/span</t>
+  </si>
+  <si>
+    <t>Hi, Nguyen Van HR1</t>
+  </si>
+  <si>
+    <t>Check notification icon is displayed</t>
+  </si>
+  <si>
+    <t>/html/body/div/div[2]/div[2]/nav/div[2]/div[2]/ul/li/a/a/span</t>
+  </si>
+  <si>
+    <t>DISPLAYED</t>
+  </si>
+  <si>
+    <t>Click notification icon</t>
+  </si>
+  <si>
+    <t>Notification state</t>
+  </si>
+  <si>
+    <t>/html/body/div/div[2]/div[2]/nav/div[2]/div[2]/ul/li</t>
+  </si>
+  <si>
+    <t>dropdown nav-item</t>
+  </si>
+  <si>
+    <t>BEFORE_CLICK_DROPDOWN</t>
+  </si>
+  <si>
+    <t>AFTER_CLICK_DROPDOWN</t>
+  </si>
+  <si>
+    <t>dropdown nav-item show</t>
+  </si>
+  <si>
+    <t>Avatar area</t>
+  </si>
+  <si>
+    <t>/html/body/div/div[2]/div[2]/nav/div[2]/div[2]/ul/div[1]/a</t>
+  </si>
+  <si>
+    <t>Image may be not excuted by using free hosting!</t>
+  </si>
+  <si>
+    <t>GET_TEXT</t>
+  </si>
+  <si>
+    <t>CLASS</t>
+  </si>
+  <si>
+    <t>popover-body</t>
+  </si>
+  <si>
+    <t>Close Notification</t>
+  </si>
+  <si>
+    <t>HOVER_ON</t>
+  </si>
+  <si>
+    <t>Move on Log-out button</t>
+  </si>
+  <si>
+    <t>Log-out</t>
+  </si>
+  <si>
+    <t>TC005</t>
+  </si>
+  <si>
+    <t>New Ticket Screen</t>
+  </si>
+  <si>
+    <t>/html/body/div/div[2]/div[2]/div/div/div/div[2]/div[1]/label</t>
+  </si>
+  <si>
+    <t>Request Type</t>
+  </si>
+  <si>
+    <t>Item Request Type_Check label</t>
+  </si>
+  <si>
+    <t>Item Request Type_Check List Value</t>
+  </si>
+  <si>
+    <t>/html/body/div/div[2]/div[2]/div/div/div/div[2]/div[1]/select</t>
+  </si>
+  <si>
+    <t>GET_LIST_VALUE_DROPDOWN</t>
+  </si>
+  <si>
+    <t>WFH
+Paid Leave
+Normal Leave
+Abnormal
+OT</t>
+  </si>
+  <si>
+    <t>Item Request Type_Select value</t>
+  </si>
+  <si>
+    <t>SELECT_VALUE</t>
+  </si>
+  <si>
+    <t>WFH</t>
+  </si>
+  <si>
+    <t>Paid Leave</t>
+  </si>
+  <si>
+    <t>Normal Leave</t>
+  </si>
+  <si>
+    <t>Abnormal</t>
+  </si>
+  <si>
+    <t>OT</t>
+  </si>
+  <si>
+    <t>Item Start Date_Check label</t>
+  </si>
+  <si>
+    <t>Item Start Date_Check type</t>
+  </si>
+  <si>
+    <t>/html/body/div/div[2]/div[2]/div/div/div/div[2]/div[2]/div/label</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>startDate</t>
+  </si>
+  <si>
+    <t>GET_TYPE</t>
+  </si>
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>onResetButton</t>
+  </si>
+  <si>
+    <t>Reset Button</t>
+  </si>
+  <si>
+    <t>Start Date</t>
+  </si>
+  <si>
+    <t>21-10-2022</t>
+  </si>
+  <si>
+    <t>2022-10-21</t>
   </si>
 </sst>
 </file>
@@ -134,12 +529,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color theme="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -159,19 +552,18 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -474,213 +866,1839 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K6"/>
+  <dimension ref="A1:K64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+    <sheetView tabSelected="1" topLeftCell="A61" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E74" sqref="E74"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="17.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="13.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="37" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.7109375" customWidth="1"/>
-    <col min="8" max="8" width="79.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="21.85546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="51.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.85546875" style="1"/>
+    <col min="2" max="2" width="17.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="13.85546875" style="1"/>
+    <col min="6" max="6" width="32.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.85546875" style="1"/>
+    <col min="8" max="8" width="80.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="33.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.85546875" style="1"/>
+    <col min="11" max="11" width="55" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="13.85546875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="E1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E2" s="1">
+        <v>20000</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J4" t="s">
+        <v>15</v>
+      </c>
+      <c r="K4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I5" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="F1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H1" t="s">
+      <c r="K5" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H7" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="I1" t="s">
-        <v>5</v>
-      </c>
-      <c r="J1" t="s">
-        <v>6</v>
-      </c>
-      <c r="K1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="I7" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="F8" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J8" t="s">
+        <v>33</v>
+      </c>
+      <c r="K8" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C12" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="E2">
-        <v>10000</v>
-      </c>
-      <c r="F2" t="s">
+      <c r="F12" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="K14" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J15" t="s">
+        <v>15</v>
+      </c>
+      <c r="K15" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="K16" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="F17" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="I2" t="s">
-        <v>10</v>
+      <c r="G17" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="J17" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="K18" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J21" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K21" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I22" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J22" t="s">
+        <v>15</v>
+      </c>
+      <c r="K22" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I23" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K23" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="I24" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="K24" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="I25" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="K25" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H26" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="I26" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="K26" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H27" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="I27" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="K27" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H28" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="I28" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="K28" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H29" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="I29" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="K29" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H30" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="I30" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="K30" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H31" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="I31" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="K31" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H32" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="I32" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K32" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="G33" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H33" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="I33" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="K33" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="G34" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H34" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="I34" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K34" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A35" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="G35" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H35" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="I35" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="K35" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A36" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="G36" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H36" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="I36" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K36" s="1" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A37" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="G37" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H37" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="I37" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="K37" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A38" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="G38" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H38" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="I38" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K38" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A39" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="G39" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H39" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="I39" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="K39" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A40" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="G40" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H40" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="I40" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K40" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A41" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="F41" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="G41" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H41" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="I41" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="K41" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A42" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="F42" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="G42" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H42" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="I42" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K42" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A43" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="F43" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="G43" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H43" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="I43" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="K43" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A44" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F44" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="G44" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H44" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="I44" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="K44" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A45" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F45" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="G45" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H45" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="I45" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="K45" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A46" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F46" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="G46" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H46" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="I46" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="K46" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A47" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F47" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="G47" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H47" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="I47" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A48" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F48" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="G48" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H48" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="I48" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="K48" s="1" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A49" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F49" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="G49" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H49" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="I49" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A50" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F50" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="G50" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H50" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="I50" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A51" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F51" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="G51" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="H51" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="I51" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="K51" s="1" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A52" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="F52" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="G52" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H52" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="I52" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A53" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E53" s="1">
+        <v>1000</v>
+      </c>
+      <c r="F53" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="G53" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="H53" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="I53" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="K53" s="1" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A54" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E54" s="1">
+        <v>1000</v>
+      </c>
+      <c r="F54" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G54" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H54" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="I54" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K54" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A55" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F55" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="G55" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H55" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I55" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J55" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K55" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A56" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F56" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="G56" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H56" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I56" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J56" t="s">
+        <v>15</v>
+      </c>
+      <c r="K56" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A57" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F57" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G57" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H57" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I57" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K57" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A58" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="F58" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="G58" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H58" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="I58" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="K58" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A59" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="F59" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="G59" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H59" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="I59" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="K59" s="1" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+      <c r="A60" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="F60" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="G60" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H60" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="I60" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="K60" s="2" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A61" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="F61" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="G61" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H61" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="I61" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="K61" s="1" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A62" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="F62" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="G62" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="H62" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="I62" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="K62" s="2" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A63" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="F63" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="G63" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="H63" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="I63" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J63" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="K63" s="3" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I64" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:K7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>148</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" t="s">
-        <v>22</v>
-      </c>
-      <c r="E3">
-        <v>3000</v>
-      </c>
-      <c r="F3" t="s">
-        <v>26</v>
-      </c>
-      <c r="G3" t="s">
-        <v>14</v>
-      </c>
-      <c r="H3" t="s">
-        <v>13</v>
-      </c>
-      <c r="I3" t="s">
-        <v>15</v>
+        <v>148</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>147</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>30</v>
+        <v>149</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" t="s">
-        <v>23</v>
-      </c>
-      <c r="E4">
-        <v>3000</v>
-      </c>
-      <c r="F4" t="s">
-        <v>27</v>
-      </c>
-      <c r="G4" t="s">
-        <v>14</v>
-      </c>
-      <c r="H4" t="s">
-        <v>17</v>
-      </c>
-      <c r="I4" t="s">
-        <v>15</v>
+        <v>149</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>147</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>16</v>
+        <v>150</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
-      <c r="E5">
-        <v>3000</v>
-      </c>
-      <c r="F5" t="s">
-        <v>28</v>
-      </c>
-      <c r="G5" t="s">
-        <v>14</v>
-      </c>
-      <c r="H5" t="s">
-        <v>18</v>
-      </c>
-      <c r="I5" t="s">
-        <v>20</v>
+        <v>150</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>151</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" t="s">
-        <v>32</v>
-      </c>
-      <c r="E6">
-        <v>3000</v>
-      </c>
-      <c r="F6" t="s">
-        <v>33</v>
-      </c>
-      <c r="G6" t="s">
-        <v>14</v>
-      </c>
-      <c r="H6" t="s">
-        <v>34</v>
-      </c>
-      <c r="I6" t="s">
-        <v>20</v>
+        <v>151</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>152</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>29</v>
+        <v>152</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>40</v>
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="K2" r:id="rId1"/>
-    <hyperlink ref="J4" r:id="rId2"/>
-    <hyperlink ref="K4" r:id="rId3"/>
-    <hyperlink ref="D2" r:id="rId4"/>
-    <hyperlink ref="K6" r:id="rId5"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId6"/>
 </worksheet>
 </file>